--- a/data_cleaning/col_mapping.xlsx
+++ b/data_cleaning/col_mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\aorsot\Renewvia\survey_impact_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\aorsot\Renewvia\survey_impact_analysis\data_cleaning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB5081A-6CED-4EEE-B985-F6A07C49F069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D31ABD5-D356-4CDB-BE19-D800A0B809BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="28932" yWindow="4632" windowWidth="17280" windowHeight="8916" firstSheet="1" activeTab="1" xr2:uid="{B4FAF429-75B1-4C9D-84CE-1490C6F7F421}"/>
+    <workbookView xWindow="45972" yWindow="492" windowWidth="13176" windowHeight="22656" xr2:uid="{B4FAF429-75B1-4C9D-84CE-1490C6F7F421}"/>
   </bookViews>
   <sheets>
     <sheet name="hs_pre_com" sheetId="2" r:id="rId1"/>
@@ -361,30 +361,18 @@
     <t>If you selected "other" in the question above, please explain (if not, please skip)2</t>
   </si>
   <si>
-    <t>electronic_type_addition_other</t>
-  </si>
-  <si>
     <t>[stovetop,television,computer,radio,lights,fan,cell phone charger,Other]</t>
   </si>
   <si>
     <t>What types of Electronic Devices or Appliances would you like to add to your household? Select all that apply</t>
   </si>
   <si>
-    <t>electronic_type_addition</t>
-  </si>
-  <si>
     <t>If you selected "other" in the question above, please explain (if not, please skip)1</t>
   </si>
   <si>
-    <t>electronics_type_other</t>
-  </si>
-  <si>
     <t>Types of Electronic Devices or Appliances in Household: Select all that apply</t>
   </si>
   <si>
-    <t>electronics_type</t>
-  </si>
-  <si>
     <t>How many cell phones does your household have?</t>
   </si>
   <si>
@@ -1286,6 +1274,18 @@
   </si>
   <si>
     <t>household_business_owners</t>
+  </si>
+  <si>
+    <t>appliances_count</t>
+  </si>
+  <si>
+    <t>power_sources_primary_explain</t>
+  </si>
+  <si>
+    <t>appliances</t>
+  </si>
+  <si>
+    <t>appliances_explain</t>
   </si>
 </sst>
 </file>
@@ -1640,8 +1640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EC7505-C67C-4768-AA38-35866D51AC6D}">
   <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1652,74 +1652,74 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1727,10 +1727,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -1738,10 +1738,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
@@ -1749,52 +1749,52 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
@@ -1802,10 +1802,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -1813,38 +1813,38 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -1855,52 +1855,52 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B20" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -1908,10 +1908,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -1930,10 +1930,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B23" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -1941,38 +1941,38 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B24" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B25" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B26" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -1980,24 +1980,24 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C28" t="s">
         <v>31</v>
@@ -2005,10 +2005,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -2016,24 +2016,24 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B31" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C31" t="s">
         <v>31</v>
@@ -2041,66 +2041,66 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B32" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
         <v>31</v>
@@ -2108,38 +2108,38 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>412</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C39" t="s">
         <v>31</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -2158,10 +2158,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -2169,24 +2169,24 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>413</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>414</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C43" t="s">
         <v>31</v>
@@ -2194,21 +2194,21 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>109</v>
+        <v>358</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>106</v>
+        <v>356</v>
       </c>
       <c r="B45" t="s">
         <v>105</v>
@@ -2740,8 +2740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0D2022-D068-48BB-AE85-CEFAA341344B}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2752,74 +2752,74 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2827,10 +2827,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -2838,10 +2838,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
@@ -2849,10 +2849,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
@@ -2860,52 +2860,52 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B10" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C13" t="s">
         <v>31</v>
@@ -2913,10 +2913,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -2924,38 +2924,38 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B17" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -2966,24 +2966,24 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
@@ -2991,24 +2991,24 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B20" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
@@ -3016,24 +3016,24 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -3041,10 +3041,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -3052,10 +3052,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B25" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -3063,10 +3063,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -3074,10 +3074,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B27" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -3085,38 +3085,38 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B29" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B30" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -3124,24 +3124,24 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B31" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B32" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C32" t="s">
         <v>31</v>
@@ -3149,10 +3149,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B33" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -3160,24 +3160,24 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B34" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C35" t="s">
         <v>31</v>
@@ -3185,66 +3185,66 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B36" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B38" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B39" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B40" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C40" t="s">
         <v>31</v>
@@ -3252,38 +3252,38 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B41" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B42" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B43" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C43" t="s">
         <v>31</v>
@@ -3291,10 +3291,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="B44" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
@@ -3302,32 +3302,32 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B45" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>113</v>
+        <v>413</v>
       </c>
       <c r="B46" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>111</v>
+        <v>414</v>
       </c>
       <c r="B47" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C47" t="s">
         <v>31</v>
@@ -3335,24 +3335,24 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>109</v>
+        <v>358</v>
       </c>
       <c r="B48" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>356</v>
       </c>
       <c r="B49" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C49" t="s">
         <v>31</v>
@@ -3363,7 +3363,7 @@
         <v>104</v>
       </c>
       <c r="B50" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
@@ -3388,7 +3388,7 @@
         <v>99</v>
       </c>
       <c r="B52" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
@@ -3427,7 +3427,7 @@
         <v>92</v>
       </c>
       <c r="B55" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
@@ -3441,7 +3441,7 @@
         <v>89</v>
       </c>
       <c r="B56" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C56" t="s">
         <v>31</v>
@@ -3494,7 +3494,7 @@
         <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C60" t="s">
         <v>10</v>
@@ -3508,7 +3508,7 @@
         <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C61" t="s">
         <v>31</v>
@@ -3522,7 +3522,7 @@
         <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C62" t="s">
         <v>10</v>
@@ -3578,7 +3578,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C66" t="s">
         <v>10</v>
@@ -3606,7 +3606,7 @@
         <v>58</v>
       </c>
       <c r="B68" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C68" t="s">
         <v>31</v>
@@ -3634,7 +3634,7 @@
         <v>52</v>
       </c>
       <c r="B70" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C70" t="s">
         <v>31</v>
@@ -3729,7 +3729,7 @@
         <v>33</v>
       </c>
       <c r="B77" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C77" t="s">
         <v>31</v>
@@ -3824,7 +3824,7 @@
         <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C84" t="s">
         <v>10</v>
@@ -3893,46 +3893,46 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -3940,10 +3940,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -3954,24 +3954,24 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -3979,10 +3979,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
@@ -3990,52 +3990,52 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
@@ -4043,10 +4043,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -4054,24 +4054,24 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B15" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -4082,10 +4082,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B16" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
@@ -4093,24 +4093,24 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B17" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B18" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
@@ -4118,10 +4118,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -4129,24 +4129,24 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B20" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B21" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
@@ -4154,52 +4154,52 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B22" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B23" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B24" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B25" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C25" t="s">
         <v>31</v>
@@ -4207,24 +4207,24 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B26" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C27" t="s">
         <v>31</v>
@@ -4232,24 +4232,24 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B28" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
@@ -4257,24 +4257,24 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B31" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C31" t="s">
         <v>31</v>
@@ -4282,10 +4282,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -4296,24 +4296,24 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -4324,24 +4324,24 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C36" t="s">
         <v>31</v>
@@ -4349,38 +4349,38 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B37" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B38" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B39" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C39" t="s">
         <v>31</v>
@@ -4388,10 +4388,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -4399,10 +4399,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B41" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
@@ -4413,10 +4413,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
@@ -4424,24 +4424,24 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B43" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B44" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C44" t="s">
         <v>31</v>
@@ -4449,24 +4449,24 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B45" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B46" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C46" t="s">
         <v>31</v>
@@ -4477,7 +4477,7 @@
         <v>104</v>
       </c>
       <c r="B47" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
@@ -4497,21 +4497,21 @@
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B49" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -4519,7 +4519,7 @@
         <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
@@ -4536,7 +4536,7 @@
         <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -4550,7 +4550,7 @@
         <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -4558,7 +4558,7 @@
         <v>92</v>
       </c>
       <c r="B53" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
@@ -4572,7 +4572,7 @@
         <v>89</v>
       </c>
       <c r="B54" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C54" t="s">
         <v>31</v>
@@ -4589,7 +4589,7 @@
         <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -4617,7 +4617,7 @@
         <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -4625,7 +4625,7 @@
         <v>78</v>
       </c>
       <c r="B58" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
@@ -4639,7 +4639,7 @@
         <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C59" t="s">
         <v>31</v>
@@ -4650,13 +4650,13 @@
         <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C60" t="s">
         <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -4689,10 +4689,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B63" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
@@ -4720,7 +4720,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C65" t="s">
         <v>10</v>
@@ -4748,7 +4748,7 @@
         <v>58</v>
       </c>
       <c r="B67" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C67" t="s">
         <v>31</v>
@@ -4756,10 +4756,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B68" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C68" t="s">
         <v>31</v>
@@ -4784,7 +4784,7 @@
         <v>52</v>
       </c>
       <c r="B70" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C70" t="s">
         <v>31</v>
@@ -4815,7 +4815,7 @@
         <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -4829,7 +4829,7 @@
         <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -4879,7 +4879,7 @@
         <v>33</v>
       </c>
       <c r="B77" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C77" t="s">
         <v>31</v>
@@ -4896,7 +4896,7 @@
         <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -4960,7 +4960,7 @@
         <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C83" t="s">
         <v>10</v>
@@ -4971,10 +4971,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B84" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
@@ -4999,7 +4999,7 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
@@ -5010,10 +5010,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B87" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
@@ -5024,10 +5024,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B88" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C88" t="s">
         <v>31</v>
@@ -5035,10 +5035,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B89" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
@@ -5049,10 +5049,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B90" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C90" t="s">
         <v>31</v>
@@ -5060,10 +5060,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B91" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C91" t="s">
         <v>31</v>
@@ -5071,10 +5071,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B92" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C92" t="s">
         <v>31</v>
@@ -5082,10 +5082,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B93" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C93" t="s">
         <v>31</v>
@@ -5112,46 +5112,46 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -5159,10 +5159,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -5173,24 +5173,24 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -5198,10 +5198,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
@@ -5209,52 +5209,52 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
@@ -5262,10 +5262,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -5273,24 +5273,24 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B15" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -5301,10 +5301,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B16" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
@@ -5312,24 +5312,24 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B17" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B18" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
@@ -5337,10 +5337,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -5348,24 +5348,24 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B20" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B21" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
@@ -5373,52 +5373,52 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B22" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B23" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B24" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B25" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C25" t="s">
         <v>31</v>
@@ -5426,24 +5426,24 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B26" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C27" t="s">
         <v>31</v>
@@ -5451,24 +5451,24 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B28" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
@@ -5476,24 +5476,24 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B31" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C31" t="s">
         <v>31</v>
@@ -5501,10 +5501,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -5515,24 +5515,24 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -5543,24 +5543,24 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C36" t="s">
         <v>31</v>
@@ -5568,38 +5568,38 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B37" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B38" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B39" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C39" t="s">
         <v>31</v>
@@ -5607,10 +5607,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -5618,10 +5618,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B41" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
@@ -5632,10 +5632,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
@@ -5643,24 +5643,24 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B43" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B44" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C44" t="s">
         <v>31</v>
@@ -5668,24 +5668,24 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B45" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B46" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C46" t="s">
         <v>31</v>
@@ -5696,7 +5696,7 @@
         <v>104</v>
       </c>
       <c r="B47" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
@@ -5716,21 +5716,21 @@
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B49" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -5738,7 +5738,7 @@
         <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
@@ -5755,7 +5755,7 @@
         <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -5769,7 +5769,7 @@
         <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -5777,7 +5777,7 @@
         <v>92</v>
       </c>
       <c r="B53" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
@@ -5791,7 +5791,7 @@
         <v>89</v>
       </c>
       <c r="B54" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C54" t="s">
         <v>31</v>
@@ -5808,7 +5808,7 @@
         <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -5836,7 +5836,7 @@
         <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -5844,7 +5844,7 @@
         <v>78</v>
       </c>
       <c r="B58" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
@@ -5858,7 +5858,7 @@
         <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C59" t="s">
         <v>31</v>
@@ -5869,13 +5869,13 @@
         <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C60" t="s">
         <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -5908,10 +5908,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B63" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
@@ -5939,7 +5939,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C65" t="s">
         <v>10</v>
@@ -5967,7 +5967,7 @@
         <v>58</v>
       </c>
       <c r="B67" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C67" t="s">
         <v>31</v>
@@ -5975,10 +5975,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B68" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C68" t="s">
         <v>31</v>
@@ -6003,7 +6003,7 @@
         <v>52</v>
       </c>
       <c r="B70" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C70" t="s">
         <v>31</v>
@@ -6034,7 +6034,7 @@
         <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -6048,7 +6048,7 @@
         <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -6098,7 +6098,7 @@
         <v>33</v>
       </c>
       <c r="B77" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C77" t="s">
         <v>31</v>
@@ -6115,7 +6115,7 @@
         <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -6179,7 +6179,7 @@
         <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C83" t="s">
         <v>10</v>
@@ -6190,10 +6190,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B84" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
@@ -6218,7 +6218,7 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
@@ -6229,10 +6229,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B87" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
@@ -6243,10 +6243,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B88" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C88" t="s">
         <v>31</v>
@@ -6254,10 +6254,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B89" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
@@ -6268,10 +6268,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B90" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C90" t="s">
         <v>31</v>
@@ -6279,10 +6279,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B91" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C91" t="s">
         <v>31</v>
@@ -6290,10 +6290,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B92" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C92" t="s">
         <v>31</v>
@@ -6301,10 +6301,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B93" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C93" t="s">
         <v>31</v>
@@ -6331,46 +6331,46 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -6378,52 +6378,52 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B8" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -6434,24 +6434,24 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B9" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B10" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -6459,10 +6459,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B11" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
@@ -6470,38 +6470,38 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B12" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B13" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B14" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
@@ -6509,24 +6509,24 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B15" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B16" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
@@ -6534,24 +6534,24 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B17" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B18" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
@@ -6559,10 +6559,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B19" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
@@ -6570,80 +6570,80 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B20" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B21" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B22" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B23" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B24" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B25" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -6654,10 +6654,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B26" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
@@ -6665,24 +6665,24 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B27" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B28" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C28" t="s">
         <v>31</v>
@@ -6690,10 +6690,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B29" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -6701,24 +6701,24 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B30" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B31" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C31" t="s">
         <v>31</v>
@@ -6726,24 +6726,24 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B32" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B33" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C33" t="s">
         <v>31</v>
@@ -6751,24 +6751,24 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B34" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B35" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C35" t="s">
         <v>31</v>
@@ -6776,24 +6776,24 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B36" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B37" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C37" t="s">
         <v>31</v>
@@ -6801,10 +6801,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B38" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C38" t="s">
         <v>31</v>
@@ -6831,46 +6831,46 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -6878,52 +6878,52 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B8" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -6934,24 +6934,24 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B9" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B10" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -6959,10 +6959,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B11" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
@@ -6970,38 +6970,38 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B12" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B13" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B14" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
@@ -7009,24 +7009,24 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B15" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B16" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
@@ -7034,24 +7034,24 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B17" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B18" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
@@ -7059,10 +7059,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B19" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
@@ -7070,80 +7070,80 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B20" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B21" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B22" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B23" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B24" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B25" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -7154,10 +7154,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B26" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
@@ -7165,24 +7165,24 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B27" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B28" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C28" t="s">
         <v>31</v>
@@ -7190,10 +7190,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B29" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -7201,24 +7201,24 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B30" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B31" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C31" t="s">
         <v>31</v>
@@ -7226,24 +7226,24 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B32" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B33" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C33" t="s">
         <v>31</v>
@@ -7251,24 +7251,24 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B34" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B35" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C35" t="s">
         <v>31</v>
@@ -7276,24 +7276,24 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B36" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B37" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C37" t="s">
         <v>31</v>
@@ -7301,10 +7301,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B38" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C38" t="s">
         <v>31</v>

--- a/data_cleaning/col_mapping.xlsx
+++ b/data_cleaning/col_mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\aorsot\Renewvia\survey_impact_analysis\data_cleaning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D31ABD5-D356-4CDB-BE19-D800A0B809BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B307D11-933F-4984-94ED-B793CD7E855F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="492" windowWidth="13176" windowHeight="22656" xr2:uid="{B4FAF429-75B1-4C9D-84CE-1490C6F7F421}"/>
+    <workbookView xWindow="34572" yWindow="600" windowWidth="11328" windowHeight="12360" xr2:uid="{B4FAF429-75B1-4C9D-84CE-1490C6F7F421}"/>
   </bookViews>
   <sheets>
     <sheet name="hs_pre_com" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,13 @@
     <sheet name="ci_post_com" sheetId="5" r:id="rId5"/>
     <sheet name="ci_post_ms" sheetId="7" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">hs_post_ms!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">hs_pre_com!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">hs_pre_ms!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2255" uniqueCount="416">
   <si>
     <t>[Yes,No]</t>
   </si>
@@ -1286,6 +1292,9 @@
   </si>
   <si>
     <t>appliances_explain</t>
+  </si>
+  <si>
+    <t>kerosene_lamp_usage_change</t>
   </si>
 </sst>
 </file>
@@ -1638,10 +1647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EC7505-C67C-4768-AA38-35866D51AC6D}">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D335"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:A45"/>
+    <sheetView tabSelected="1" topLeftCell="A313" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A335" sqref="A335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1666,138 +1675,90 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" t="s">
-        <v>201</v>
+        <v>317</v>
+      </c>
+      <c r="B2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>320</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" t="s">
-        <v>201</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>198</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>319</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>195</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>319</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>328</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>328</v>
       </c>
       <c r="B8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>324</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>186</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>379</v>
+        <v>324</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>184</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>332</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>181</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>332</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -1813,319 +1774,229 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>166</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
-        <v>164</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>163</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>410</v>
       </c>
       <c r="B19" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="B21" t="s">
-        <v>156</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>378</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>153</v>
+        <v>378</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="B24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
-        <v>147</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="B25" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="B26" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="B27" t="s">
-        <v>143</v>
-      </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" t="s">
-        <v>136</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
-      </c>
-      <c r="C28" t="s">
-        <v>31</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>144</v>
+        <v>203</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" t="s">
-        <v>136</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>410</v>
+        <v>188</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
-      </c>
-      <c r="C32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" t="s">
-        <v>131</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" t="s">
-        <v>116</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" t="s">
-        <v>31</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
@@ -2136,612 +2007,2771 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>412</v>
+        <v>268</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" t="s">
-        <v>31</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>411</v>
+        <v>260</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" t="s">
-        <v>4</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>413</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>414</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
-      </c>
-      <c r="C43" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" t="s">
-        <v>106</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" t="s">
-        <v>31</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>291</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" t="s">
-        <v>4</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" t="s">
-        <v>93</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" t="s">
-        <v>79</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57" t="s">
-        <v>31</v>
-      </c>
-      <c r="D57" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
         <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>192</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>191</v>
       </c>
       <c r="C61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>192</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
-      </c>
-      <c r="C63" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" t="s">
-        <v>59</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>334</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
-      </c>
-      <c r="C64" t="s">
-        <v>31</v>
-      </c>
-      <c r="D64" t="s">
-        <v>56</v>
+        <v>403</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>55</v>
+        <v>334</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
-      </c>
-      <c r="C65" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" t="s">
-        <v>53</v>
+        <v>397</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="B66" t="s">
-        <v>51</v>
-      </c>
-      <c r="C66" t="s">
-        <v>31</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>331</v>
       </c>
       <c r="B67" t="s">
-        <v>49</v>
-      </c>
-      <c r="C67" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" t="s">
-        <v>48</v>
+        <v>404</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>47</v>
+        <v>327</v>
       </c>
       <c r="B68" t="s">
-        <v>46</v>
-      </c>
-      <c r="C68" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" t="s">
-        <v>45</v>
+        <v>326</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>44</v>
+        <v>327</v>
       </c>
       <c r="B69" t="s">
-        <v>43</v>
-      </c>
-      <c r="C69" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" t="s">
-        <v>42</v>
+        <v>405</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="B70" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="B71" t="s">
-        <v>37</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1</v>
-      </c>
-      <c r="D71" t="s">
-        <v>0</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="B72" t="s">
-        <v>35</v>
-      </c>
-      <c r="C72" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>33</v>
+        <v>302</v>
       </c>
       <c r="B73" t="s">
-        <v>32</v>
-      </c>
-      <c r="C73" t="s">
-        <v>31</v>
+        <v>301</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>30</v>
+        <v>288</v>
       </c>
       <c r="B74" t="s">
-        <v>29</v>
-      </c>
-      <c r="C74" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" t="s">
-        <v>28</v>
+        <v>287</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>27</v>
+        <v>415</v>
       </c>
       <c r="B75" t="s">
-        <v>26</v>
-      </c>
-      <c r="C75" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" t="s">
-        <v>25</v>
+        <v>278</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>24</v>
+        <v>311</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
-      </c>
-      <c r="C76" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" t="s">
-        <v>22</v>
+        <v>310</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>21</v>
+        <v>307</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
-      </c>
-      <c r="C77" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" t="s">
-        <v>19</v>
+        <v>306</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>18</v>
+        <v>305</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
-      </c>
-      <c r="C78" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" t="s">
-        <v>16</v>
+        <v>304</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>15</v>
+        <v>314</v>
       </c>
       <c r="B79" t="s">
-        <v>14</v>
-      </c>
-      <c r="C79" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" t="s">
-        <v>13</v>
+        <v>384</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>345</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" t="s">
-        <v>9</v>
+        <v>344</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>345</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1</v>
-      </c>
-      <c r="D81" t="s">
-        <v>0</v>
+        <v>344</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>283</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" t="s">
-        <v>4</v>
+        <v>282</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>3</v>
+        <v>391</v>
       </c>
       <c r="B83" t="s">
-        <v>2</v>
-      </c>
-      <c r="C83" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>323</v>
+      </c>
+      <c r="B84" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>323</v>
+      </c>
+      <c r="B85" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>44</v>
+      </c>
+      <c r="B89" t="s">
+        <v>43</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>44</v>
+      </c>
+      <c r="B90" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>44</v>
+      </c>
+      <c r="B91" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92" t="s">
+        <v>29</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>30</v>
+      </c>
+      <c r="B93" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>30</v>
+      </c>
+      <c r="B94" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>248</v>
+      </c>
+      <c r="B95" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>87</v>
+      </c>
+      <c r="B96" t="s">
+        <v>86</v>
+      </c>
+      <c r="C96" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>87</v>
+      </c>
+      <c r="B98" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>27</v>
+      </c>
+      <c r="B99" t="s">
+        <v>26</v>
+      </c>
+      <c r="C99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>27</v>
+      </c>
+      <c r="B100" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>27</v>
+      </c>
+      <c r="B101" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>197</v>
+      </c>
+      <c r="B102" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>197</v>
+      </c>
+      <c r="B103" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>157</v>
+      </c>
+      <c r="B104" t="s">
+        <v>156</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>157</v>
+      </c>
+      <c r="B105" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>411</v>
+      </c>
+      <c r="B110" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>411</v>
+      </c>
+      <c r="B111" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>155</v>
+      </c>
+      <c r="B112" t="s">
+        <v>154</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>155</v>
+      </c>
+      <c r="B113" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>121</v>
+      </c>
+      <c r="B114" t="s">
+        <v>120</v>
+      </c>
+      <c r="C114" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>104</v>
+      </c>
+      <c r="B117" t="s">
+        <v>103</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>104</v>
+      </c>
+      <c r="B118" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>104</v>
+      </c>
+      <c r="B119" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>99</v>
+      </c>
+      <c r="B120" t="s">
+        <v>98</v>
+      </c>
+      <c r="C120" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>99</v>
+      </c>
+      <c r="B121" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>99</v>
+      </c>
+      <c r="B122" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>153</v>
+      </c>
+      <c r="B123" t="s">
+        <v>152</v>
+      </c>
+      <c r="C123" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>153</v>
+      </c>
+      <c r="B124" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>146</v>
+      </c>
+      <c r="B125" t="s">
+        <v>145</v>
+      </c>
+      <c r="C125" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>146</v>
+      </c>
+      <c r="B126" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>144</v>
+      </c>
+      <c r="B127" t="s">
+        <v>139</v>
+      </c>
+      <c r="C127" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>140</v>
+      </c>
+      <c r="B128" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>159</v>
+      </c>
+      <c r="B129" t="s">
+        <v>158</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>159</v>
+      </c>
+      <c r="B130" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>95</v>
+      </c>
+      <c r="B131" t="s">
+        <v>94</v>
+      </c>
+      <c r="C131" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>95</v>
+      </c>
+      <c r="B132" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>95</v>
+      </c>
+      <c r="B133" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>18</v>
+      </c>
+      <c r="B134" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>18</v>
+      </c>
+      <c r="B135" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>18</v>
+      </c>
+      <c r="B136" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>47</v>
+      </c>
+      <c r="B137" t="s">
+        <v>46</v>
+      </c>
+      <c r="C137" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>47</v>
+      </c>
+      <c r="B138" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>47</v>
+      </c>
+      <c r="B139" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>50</v>
+      </c>
+      <c r="B140" t="s">
+        <v>49</v>
+      </c>
+      <c r="C140" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>50</v>
+      </c>
+      <c r="B141" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>50</v>
+      </c>
+      <c r="B142" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>70</v>
+      </c>
+      <c r="B143" t="s">
+        <v>69</v>
+      </c>
+      <c r="C143" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>70</v>
+      </c>
+      <c r="B144" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>70</v>
+      </c>
+      <c r="B145" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>64</v>
+      </c>
+      <c r="B146" t="s">
+        <v>63</v>
+      </c>
+      <c r="C146" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>64</v>
+      </c>
+      <c r="B147" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>64</v>
+      </c>
+      <c r="B148" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>144</v>
+      </c>
+      <c r="B149" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>142</v>
+      </c>
+      <c r="B150" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>142</v>
+      </c>
+      <c r="B151" t="s">
+        <v>143</v>
+      </c>
+      <c r="C151" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>138</v>
+      </c>
+      <c r="B152" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>138</v>
+      </c>
+      <c r="B153" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>138</v>
+      </c>
+      <c r="B154" t="s">
+        <v>137</v>
+      </c>
+      <c r="C154" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>197</v>
+      </c>
+      <c r="B155" t="s">
+        <v>196</v>
+      </c>
+      <c r="C155" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>197</v>
+      </c>
+      <c r="B156" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>294</v>
+      </c>
+      <c r="B157" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>316</v>
+      </c>
+      <c r="B158" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>313</v>
+      </c>
+      <c r="B159" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>309</v>
+      </c>
+      <c r="B160" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>254</v>
+      </c>
+      <c r="B161" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>299</v>
+      </c>
+      <c r="B162" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>298</v>
+      </c>
+      <c r="B163" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>350</v>
+      </c>
+      <c r="B164" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>350</v>
+      </c>
+      <c r="B165" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>343</v>
+      </c>
+      <c r="B166" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>343</v>
+      </c>
+      <c r="B167" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>336</v>
+      </c>
+      <c r="B168" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>336</v>
+      </c>
+      <c r="B169" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>338</v>
+      </c>
+      <c r="B170" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>338</v>
+      </c>
+      <c r="B171" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>377</v>
+      </c>
+      <c r="B172" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>377</v>
+      </c>
+      <c r="B173" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>168</v>
+      </c>
+      <c r="B174" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>168</v>
+      </c>
+      <c r="B175" t="s">
+        <v>167</v>
+      </c>
+      <c r="C175" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>363</v>
+      </c>
+      <c r="B176" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>363</v>
+      </c>
+      <c r="B177" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>356</v>
+      </c>
+      <c r="B178" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>356</v>
+      </c>
+      <c r="B179" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>412</v>
+      </c>
+      <c r="B180" t="s">
+        <v>114</v>
+      </c>
+      <c r="C180" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>414</v>
+      </c>
+      <c r="B181" t="s">
+        <v>108</v>
+      </c>
+      <c r="C181" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>356</v>
+      </c>
+      <c r="B182" t="s">
+        <v>105</v>
+      </c>
+      <c r="C182" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>89</v>
+      </c>
+      <c r="B183" t="s">
+        <v>88</v>
+      </c>
+      <c r="C183" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>75</v>
+      </c>
+      <c r="B184" t="s">
+        <v>74</v>
+      </c>
+      <c r="C184" t="s">
+        <v>31</v>
+      </c>
+      <c r="D184" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>58</v>
+      </c>
+      <c r="B185" t="s">
+        <v>57</v>
+      </c>
+      <c r="C185" t="s">
+        <v>31</v>
+      </c>
+      <c r="D185" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>52</v>
+      </c>
+      <c r="B186" t="s">
+        <v>51</v>
+      </c>
+      <c r="C186" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>140</v>
+      </c>
+      <c r="B187" t="s">
+        <v>141</v>
+      </c>
+      <c r="C187" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>241</v>
+      </c>
+      <c r="B188" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>140</v>
+      </c>
+      <c r="B189" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>135</v>
+      </c>
+      <c r="B190" t="s">
+        <v>134</v>
+      </c>
+      <c r="C190" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>75</v>
+      </c>
+      <c r="B191" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>52</v>
+      </c>
+      <c r="B192" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>58</v>
+      </c>
+      <c r="B193" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>52</v>
+      </c>
+      <c r="B194" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>123</v>
+      </c>
+      <c r="B195" t="s">
+        <v>122</v>
+      </c>
+      <c r="C195" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>238</v>
+      </c>
+      <c r="B196" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>135</v>
+      </c>
+      <c r="B197" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>142</v>
+      </c>
+      <c r="B198" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>123</v>
+      </c>
+      <c r="B199" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>135</v>
+      </c>
+      <c r="B200" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>115</v>
+      </c>
+      <c r="B201" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>123</v>
+      </c>
+      <c r="B202" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>284</v>
+      </c>
+      <c r="B203" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>115</v>
+      </c>
+      <c r="B204" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>281</v>
+      </c>
+      <c r="B205" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>414</v>
+      </c>
+      <c r="B206" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>89</v>
+      </c>
+      <c r="B207" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>356</v>
+      </c>
+      <c r="B208" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>75</v>
+      </c>
+      <c r="B209" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>89</v>
+      </c>
+      <c r="B210" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>58</v>
+      </c>
+      <c r="B211" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>252</v>
+      </c>
+      <c r="B212" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>250</v>
+      </c>
+      <c r="B213" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>296</v>
+      </c>
+      <c r="B214" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>366</v>
+      </c>
+      <c r="B215" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>366</v>
+      </c>
+      <c r="B216" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>270</v>
+      </c>
+      <c r="B217" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>183</v>
+      </c>
+      <c r="B218" t="s">
+        <v>182</v>
+      </c>
+      <c r="C218" t="s">
+        <v>10</v>
+      </c>
+      <c r="D218" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>183</v>
+      </c>
+      <c r="B219" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>183</v>
+      </c>
+      <c r="B220" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>379</v>
+      </c>
+      <c r="B221" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>379</v>
+      </c>
+      <c r="B222" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>190</v>
+      </c>
+      <c r="B223" t="s">
+        <v>189</v>
+      </c>
+      <c r="C223" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>190</v>
+      </c>
+      <c r="B224" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>190</v>
+      </c>
+      <c r="B225" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>180</v>
+      </c>
+      <c r="B226" t="s">
+        <v>179</v>
+      </c>
+      <c r="C226" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>180</v>
+      </c>
+      <c r="B227" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>180</v>
+      </c>
+      <c r="B228" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>379</v>
+      </c>
+      <c r="B229" t="s">
+        <v>185</v>
+      </c>
+      <c r="C229" t="s">
+        <v>10</v>
+      </c>
+      <c r="D229" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>379</v>
+      </c>
+      <c r="B230" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>379</v>
+      </c>
+      <c r="B231" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>183</v>
+      </c>
+      <c r="B232" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>183</v>
+      </c>
+      <c r="B233" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>240</v>
+      </c>
+      <c r="B234" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>197</v>
+      </c>
+      <c r="B235" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>298</v>
+      </c>
+      <c r="B236" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>298</v>
+      </c>
+      <c r="B237" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>200</v>
+      </c>
+      <c r="B238" t="s">
+        <v>199</v>
+      </c>
+      <c r="C238" t="s">
         <v>1</v>
       </c>
-      <c r="D83" t="s">
-        <v>0</v>
+      <c r="D238" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>200</v>
+      </c>
+      <c r="B239" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>341</v>
+      </c>
+      <c r="B240" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>341</v>
+      </c>
+      <c r="B241" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>353</v>
+      </c>
+      <c r="B242" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>353</v>
+      </c>
+      <c r="B243" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>354</v>
+      </c>
+      <c r="B244" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>354</v>
+      </c>
+      <c r="B245" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>347</v>
+      </c>
+      <c r="B246" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>347</v>
+      </c>
+      <c r="B247" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>352</v>
+      </c>
+      <c r="B248" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>352</v>
+      </c>
+      <c r="B249" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>358</v>
+      </c>
+      <c r="B250" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>358</v>
+      </c>
+      <c r="B251" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>205</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C252" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>205</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>205</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>205</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>205</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>165</v>
+      </c>
+      <c r="B257" t="s">
+        <v>164</v>
+      </c>
+      <c r="C257" t="s">
+        <v>10</v>
+      </c>
+      <c r="D257" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>165</v>
+      </c>
+      <c r="B258" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>286</v>
+      </c>
+      <c r="B259" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>413</v>
+      </c>
+      <c r="B260" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>413</v>
+      </c>
+      <c r="B261" t="s">
+        <v>109</v>
+      </c>
+      <c r="C261" t="s">
+        <v>10</v>
+      </c>
+      <c r="D261" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>258</v>
+      </c>
+      <c r="B262" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>151</v>
+      </c>
+      <c r="B263" t="s">
+        <v>150</v>
+      </c>
+      <c r="C263" t="s">
+        <v>10</v>
+      </c>
+      <c r="D263" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>151</v>
+      </c>
+      <c r="B264" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>149</v>
+      </c>
+      <c r="B265" t="s">
+        <v>148</v>
+      </c>
+      <c r="C265" t="s">
+        <v>10</v>
+      </c>
+      <c r="D265" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>149</v>
+      </c>
+      <c r="B266" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>102</v>
+      </c>
+      <c r="B267" t="s">
+        <v>101</v>
+      </c>
+      <c r="C267" t="s">
+        <v>10</v>
+      </c>
+      <c r="D267" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>102</v>
+      </c>
+      <c r="B268" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>102</v>
+      </c>
+      <c r="B269" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>78</v>
+      </c>
+      <c r="B270" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>78</v>
+      </c>
+      <c r="B271" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>78</v>
+      </c>
+      <c r="B272" t="s">
+        <v>77</v>
+      </c>
+      <c r="C272" t="s">
+        <v>10</v>
+      </c>
+      <c r="D272" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>92</v>
+      </c>
+      <c r="B273" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>92</v>
+      </c>
+      <c r="B274" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>6</v>
+      </c>
+      <c r="B275" t="s">
+        <v>5</v>
+      </c>
+      <c r="C275" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>6</v>
+      </c>
+      <c r="B276" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>6</v>
+      </c>
+      <c r="B277" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>73</v>
+      </c>
+      <c r="B278" t="s">
+        <v>72</v>
+      </c>
+      <c r="C278" t="s">
+        <v>10</v>
+      </c>
+      <c r="D278" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>73</v>
+      </c>
+      <c r="B279" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>73</v>
+      </c>
+      <c r="B280" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>81</v>
+      </c>
+      <c r="B281" t="s">
+        <v>80</v>
+      </c>
+      <c r="C281" t="s">
+        <v>10</v>
+      </c>
+      <c r="D281" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>81</v>
+      </c>
+      <c r="B282" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>81</v>
+      </c>
+      <c r="B283" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>21</v>
+      </c>
+      <c r="B284" t="s">
+        <v>20</v>
+      </c>
+      <c r="C284" t="s">
+        <v>10</v>
+      </c>
+      <c r="D284" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>21</v>
+      </c>
+      <c r="B285" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>21</v>
+      </c>
+      <c r="B286" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>130</v>
+      </c>
+      <c r="B287" t="s">
+        <v>129</v>
+      </c>
+      <c r="C287" t="s">
+        <v>10</v>
+      </c>
+      <c r="D287" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>130</v>
+      </c>
+      <c r="B288" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>368</v>
+      </c>
+      <c r="B289" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>368</v>
+      </c>
+      <c r="B290" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>128</v>
+      </c>
+      <c r="B291" t="s">
+        <v>127</v>
+      </c>
+      <c r="C291" t="s">
+        <v>10</v>
+      </c>
+      <c r="D291" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>128</v>
+      </c>
+      <c r="B292" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>36</v>
+      </c>
+      <c r="B293" t="s">
+        <v>35</v>
+      </c>
+      <c r="C293" t="s">
+        <v>10</v>
+      </c>
+      <c r="D293" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>36</v>
+      </c>
+      <c r="B294" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>36</v>
+      </c>
+      <c r="B295" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>162</v>
+      </c>
+      <c r="B296" t="s">
+        <v>161</v>
+      </c>
+      <c r="C296" t="s">
+        <v>10</v>
+      </c>
+      <c r="D296" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>162</v>
+      </c>
+      <c r="B297" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>162</v>
+      </c>
+      <c r="B298" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>33</v>
+      </c>
+      <c r="B299" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>33</v>
+      </c>
+      <c r="B300" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>33</v>
+      </c>
+      <c r="B301" t="s">
+        <v>32</v>
+      </c>
+      <c r="C301" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>118</v>
+      </c>
+      <c r="B302" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>118</v>
+      </c>
+      <c r="B303" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>118</v>
+      </c>
+      <c r="B304" t="s">
+        <v>117</v>
+      </c>
+      <c r="C304" t="s">
+        <v>10</v>
+      </c>
+      <c r="D304" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>192</v>
+      </c>
+      <c r="B305" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>192</v>
+      </c>
+      <c r="B306" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>245</v>
+      </c>
+      <c r="B307" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>190</v>
+      </c>
+      <c r="B308" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>190</v>
+      </c>
+      <c r="B309" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>92</v>
+      </c>
+      <c r="B310" t="s">
+        <v>91</v>
+      </c>
+      <c r="C310" t="s">
+        <v>10</v>
+      </c>
+      <c r="D310" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>173</v>
+      </c>
+      <c r="B311" t="s">
+        <v>172</v>
+      </c>
+      <c r="C311" t="s">
+        <v>10</v>
+      </c>
+      <c r="D311" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>173</v>
+      </c>
+      <c r="B312" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>194</v>
+      </c>
+      <c r="B313" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>194</v>
+      </c>
+      <c r="B314" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>194</v>
+      </c>
+      <c r="B315" t="s">
+        <v>193</v>
+      </c>
+      <c r="C315" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>194</v>
+      </c>
+      <c r="B316" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>194</v>
+      </c>
+      <c r="B317" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>41</v>
+      </c>
+      <c r="B318" t="s">
+        <v>40</v>
+      </c>
+      <c r="C318" t="s">
+        <v>10</v>
+      </c>
+      <c r="D318" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>41</v>
+      </c>
+      <c r="B319" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>41</v>
+      </c>
+      <c r="B320" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>61</v>
+      </c>
+      <c r="B321" t="s">
+        <v>60</v>
+      </c>
+      <c r="C321" t="s">
+        <v>10</v>
+      </c>
+      <c r="D321" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>61</v>
+      </c>
+      <c r="B322" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>61</v>
+      </c>
+      <c r="B323" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>358</v>
+      </c>
+      <c r="B324" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>358</v>
+      </c>
+      <c r="B325" t="s">
+        <v>107</v>
+      </c>
+      <c r="C325" t="s">
+        <v>10</v>
+      </c>
+      <c r="D325" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>55</v>
+      </c>
+      <c r="B326" t="s">
+        <v>54</v>
+      </c>
+      <c r="C326" t="s">
+        <v>10</v>
+      </c>
+      <c r="D326" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>55</v>
+      </c>
+      <c r="B327" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>55</v>
+      </c>
+      <c r="B328" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>84</v>
+      </c>
+      <c r="B329" t="s">
+        <v>83</v>
+      </c>
+      <c r="C329" t="s">
+        <v>10</v>
+      </c>
+      <c r="D329" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>84</v>
+      </c>
+      <c r="B330" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>84</v>
+      </c>
+      <c r="B331" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>24</v>
+      </c>
+      <c r="B332" t="s">
+        <v>23</v>
+      </c>
+      <c r="C332" t="s">
+        <v>10</v>
+      </c>
+      <c r="D332" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>24</v>
+      </c>
+      <c r="B333" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>24</v>
+      </c>
+      <c r="B334" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>256</v>
+      </c>
+      <c r="B335" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{08EC7505-C67C-4768-AA38-35866D51AC6D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D335">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0D2022-D068-48BB-AE85-CEFAA341344B}">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D179"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:A49"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3872,7 +5902,744 @@
         <v>0</v>
       </c>
     </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>317</v>
+      </c>
+      <c r="B88" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>133</v>
+      </c>
+      <c r="B91" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>203</v>
+      </c>
+      <c r="B92" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>188</v>
+      </c>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>125</v>
+      </c>
+      <c r="B94" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>268</v>
+      </c>
+      <c r="B95" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>260</v>
+      </c>
+      <c r="B96" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>38</v>
+      </c>
+      <c r="B97" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>291</v>
+      </c>
+      <c r="B98" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>68</v>
+      </c>
+      <c r="B99" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>263</v>
+      </c>
+      <c r="B101" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>66</v>
+      </c>
+      <c r="B102" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>192</v>
+      </c>
+      <c r="B103" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>176</v>
+      </c>
+      <c r="B104" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>302</v>
+      </c>
+      <c r="B105" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>288</v>
+      </c>
+      <c r="B106" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>279</v>
+      </c>
+      <c r="B107" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>311</v>
+      </c>
+      <c r="B108" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>307</v>
+      </c>
+      <c r="B109" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>305</v>
+      </c>
+      <c r="B110" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>314</v>
+      </c>
+      <c r="B111" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>283</v>
+      </c>
+      <c r="B112" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>391</v>
+      </c>
+      <c r="B113" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>44</v>
+      </c>
+      <c r="B115" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>30</v>
+      </c>
+      <c r="B116" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>248</v>
+      </c>
+      <c r="B117" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>87</v>
+      </c>
+      <c r="B118" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>27</v>
+      </c>
+      <c r="B119" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>111</v>
+      </c>
+      <c r="B120" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>113</v>
+      </c>
+      <c r="B121" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>104</v>
+      </c>
+      <c r="B123" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>99</v>
+      </c>
+      <c r="B124" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>95</v>
+      </c>
+      <c r="B125" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>18</v>
+      </c>
+      <c r="B126" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>47</v>
+      </c>
+      <c r="B127" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>50</v>
+      </c>
+      <c r="B128" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>70</v>
+      </c>
+      <c r="B129" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>64</v>
+      </c>
+      <c r="B130" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>142</v>
+      </c>
+      <c r="B131" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>294</v>
+      </c>
+      <c r="B133" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>316</v>
+      </c>
+      <c r="B134" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>313</v>
+      </c>
+      <c r="B135" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>309</v>
+      </c>
+      <c r="B136" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>254</v>
+      </c>
+      <c r="B137" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>299</v>
+      </c>
+      <c r="B138" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>298</v>
+      </c>
+      <c r="B139" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>52</v>
+      </c>
+      <c r="B141" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>135</v>
+      </c>
+      <c r="B142" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>123</v>
+      </c>
+      <c r="B143" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>115</v>
+      </c>
+      <c r="B144" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>284</v>
+      </c>
+      <c r="B145" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>281</v>
+      </c>
+      <c r="B146" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>89</v>
+      </c>
+      <c r="B147" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>75</v>
+      </c>
+      <c r="B148" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>58</v>
+      </c>
+      <c r="B149" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>252</v>
+      </c>
+      <c r="B150" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>250</v>
+      </c>
+      <c r="B151" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>296</v>
+      </c>
+      <c r="B152" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>270</v>
+      </c>
+      <c r="B153" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>183</v>
+      </c>
+      <c r="B154" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>190</v>
+      </c>
+      <c r="B155" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>180</v>
+      </c>
+      <c r="B156" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>379</v>
+      </c>
+      <c r="B157" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>197</v>
+      </c>
+      <c r="B158" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>205</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>286</v>
+      </c>
+      <c r="B160" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>258</v>
+      </c>
+      <c r="B161" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>102</v>
+      </c>
+      <c r="B162" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>78</v>
+      </c>
+      <c r="B163" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>92</v>
+      </c>
+      <c r="B164" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>6</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>73</v>
+      </c>
+      <c r="B166" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>81</v>
+      </c>
+      <c r="B167" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>21</v>
+      </c>
+      <c r="B168" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>36</v>
+      </c>
+      <c r="B169" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>162</v>
+      </c>
+      <c r="B170" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>33</v>
+      </c>
+      <c r="B171" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>118</v>
+      </c>
+      <c r="B172" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>390</v>
+      </c>
+      <c r="B173" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>41</v>
+      </c>
+      <c r="B174" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>61</v>
+      </c>
+      <c r="B175" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>55</v>
+      </c>
+      <c r="B176" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>84</v>
+      </c>
+      <c r="B177" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>24</v>
+      </c>
+      <c r="B178" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>256</v>
+      </c>
+      <c r="B179" t="s">
+        <v>255</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{2A0D2022-D068-48BB-AE85-CEFAA341344B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3881,8 +6648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FE78D7-D8E5-4B44-8DDA-FBF4F5758FE5}">
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3907,171 +6674,183 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>247</v>
+        <v>317</v>
+      </c>
+      <c r="B2" t="s">
+        <v>392</v>
       </c>
       <c r="C2" t="s">
-        <v>201</v>
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>201</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>390</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>391</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>383</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B6" t="s">
-        <v>318</v>
+        <v>246</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>189</v>
+        <v>386</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>186</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>379</v>
+        <v>260</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>259</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>291</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>290</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>261</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>317</v>
+        <v>263</v>
       </c>
       <c r="B15" t="s">
-        <v>392</v>
+        <v>262</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -4082,96 +6861,105 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>316</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>315</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>314</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s">
-        <v>384</v>
+        <v>191</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>277</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>313</v>
+        <v>176</v>
       </c>
       <c r="B18" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>302</v>
       </c>
       <c r="B19" t="s">
-        <v>161</v>
+        <v>301</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="B20" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="B21" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B22" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B23" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -4182,99 +6970,108 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B24" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B25" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>283</v>
       </c>
       <c r="B26" t="s">
-        <v>237</v>
+        <v>282</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>391</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>383</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>131</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="B31" t="s">
-        <v>297</v>
+        <v>382</v>
       </c>
       <c r="C31" t="s">
         <v>31</v>
@@ -4282,509 +7079,476 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>296</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>295</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>0</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>294</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>293</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>292</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>291</v>
+        <v>111</v>
       </c>
       <c r="B34" t="s">
-        <v>290</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" t="s">
-        <v>116</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B36" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B37" t="s">
-        <v>229</v>
+        <v>388</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>289</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>228</v>
+        <v>389</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" t="s">
-        <v>116</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B39" t="s">
-        <v>234</v>
+        <v>94</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>387</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>288</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>287</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>0</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>286</v>
+        <v>70</v>
       </c>
       <c r="B43" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>284</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>283</v>
+        <v>142</v>
       </c>
       <c r="B45" t="s">
-        <v>282</v>
+        <v>237</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>281</v>
+        <v>138</v>
       </c>
       <c r="B46" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>294</v>
       </c>
       <c r="B47" t="s">
-        <v>388</v>
+        <v>293</v>
       </c>
       <c r="C47" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>316</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>315</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="B49" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>309</v>
       </c>
       <c r="B50" t="s">
-        <v>389</v>
+        <v>308</v>
       </c>
       <c r="C50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>254</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>253</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>95</v>
+        <v>299</v>
       </c>
       <c r="B52" t="s">
-        <v>94</v>
+        <v>385</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>92</v>
+        <v>298</v>
       </c>
       <c r="B53" t="s">
-        <v>219</v>
+        <v>297</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>140</v>
+      </c>
+      <c r="B54" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>216</v>
+      </c>
+      <c r="C55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" t="s">
+        <v>236</v>
+      </c>
+      <c r="C57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" t="s">
+        <v>234</v>
+      </c>
+      <c r="C58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>284</v>
+      </c>
+      <c r="B59" t="s">
+        <v>230</v>
+      </c>
+      <c r="C59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>281</v>
+      </c>
+      <c r="B60" t="s">
+        <v>227</v>
+      </c>
+      <c r="C60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>89</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B61" t="s">
         <v>224</v>
       </c>
-      <c r="C54" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>87</v>
-      </c>
-      <c r="B55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>84</v>
-      </c>
-      <c r="B56" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>81</v>
-      </c>
-      <c r="B57" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>78</v>
-      </c>
-      <c r="B58" t="s">
-        <v>272</v>
-      </c>
-      <c r="C58" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="C61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>75</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B62" t="s">
         <v>222</v>
       </c>
-      <c r="C59" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" t="s">
-        <v>215</v>
-      </c>
-      <c r="C60" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>68</v>
-      </c>
-      <c r="B61" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>66</v>
-      </c>
-      <c r="B62" t="s">
-        <v>65</v>
-      </c>
       <c r="C62" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>270</v>
+        <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="C63" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>252</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>251</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>250</v>
       </c>
       <c r="B65" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>296</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
+        <v>295</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>58</v>
+        <v>270</v>
       </c>
       <c r="B67" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>268</v>
+        <v>183</v>
       </c>
       <c r="B68" t="s">
-        <v>267</v>
+        <v>182</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="B69" t="s">
-        <v>54</v>
+        <v>189</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="B70" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="C70" t="s">
         <v>31</v>
@@ -4792,306 +7556,314 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>379</v>
       </c>
       <c r="B71" t="s">
-        <v>49</v>
+        <v>185</v>
       </c>
       <c r="C71" t="s">
         <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>48</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>47</v>
+        <v>197</v>
       </c>
       <c r="B72" t="s">
-        <v>46</v>
+        <v>318</v>
       </c>
       <c r="C72" t="s">
         <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>44</v>
-      </c>
-      <c r="B73" t="s">
-        <v>43</v>
+        <v>205</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" t="s">
-        <v>265</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>41</v>
+        <v>286</v>
       </c>
       <c r="B74" t="s">
-        <v>40</v>
+        <v>285</v>
       </c>
       <c r="C74" t="s">
         <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>38</v>
+        <v>258</v>
       </c>
       <c r="B75" t="s">
-        <v>37</v>
+        <v>257</v>
       </c>
       <c r="C75" t="s">
-        <v>1</v>
-      </c>
-      <c r="D75" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="B76" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="C76" t="s">
         <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>34</v>
+        <v>280</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>211</v>
+        <v>272</v>
       </c>
       <c r="C77" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="D77" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="B78" t="s">
-        <v>29</v>
+        <v>219</v>
       </c>
       <c r="C78" t="s">
         <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>264</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="B80" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="C80" t="s">
         <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>22</v>
+        <v>271</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C81" t="s">
         <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>19</v>
+        <v>273</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B82" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C82" t="s">
         <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B83" t="s">
-        <v>210</v>
+        <v>35</v>
       </c>
       <c r="C83" t="s">
         <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>263</v>
+        <v>162</v>
       </c>
       <c r="B84" t="s">
-        <v>262</v>
+        <v>161</v>
       </c>
       <c r="C84" t="s">
-        <v>1</v>
-      </c>
-      <c r="D84" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>211</v>
       </c>
       <c r="C85" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="B86" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="C86" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="B87" t="s">
-        <v>259</v>
+        <v>193</v>
       </c>
       <c r="C87" t="s">
-        <v>1</v>
-      </c>
-      <c r="D87" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>258</v>
+        <v>41</v>
       </c>
       <c r="B88" t="s">
-        <v>257</v>
+        <v>40</v>
       </c>
       <c r="C88" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="D88" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>256</v>
+        <v>61</v>
       </c>
       <c r="B89" t="s">
-        <v>255</v>
+        <v>60</v>
       </c>
       <c r="C89" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>254</v>
+        <v>55</v>
       </c>
       <c r="B90" t="s">
-        <v>253</v>
+        <v>54</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="D90" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>252</v>
+        <v>84</v>
       </c>
       <c r="B91" t="s">
-        <v>251</v>
+        <v>83</v>
       </c>
       <c r="C91" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="D91" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="B92" t="s">
-        <v>249</v>
+        <v>23</v>
       </c>
       <c r="C92" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="D92" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B93" t="s">
-        <v>382</v>
+        <v>255</v>
       </c>
       <c r="C93" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{B7FE78D7-D8E5-4B44-8DDA-FBF4F5758FE5}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D93">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5100,8 +7872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389CC3DC-E7A9-4413-91EB-640B4B281CA4}">
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6319,8 +9091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F05F95D-0574-49A0-8087-4C95CDAF63B0}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A2:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6820,7 +9592,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
